--- a/Dicionário_dados/Dicionario de dados.xlsx
+++ b/Dicionário_dados/Dicionario de dados.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="7"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Instrutores" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Modalidade" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Treinos" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="alunos" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Assinatura" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Pagamento" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Presencas" sheetId="8" r:id="rId11"/>
+    <sheet name="Planos" sheetId="1" r:id="rId1"/>
+    <sheet name="Instrutores" sheetId="2" r:id="rId2"/>
+    <sheet name="Modalidade" sheetId="3" r:id="rId3"/>
+    <sheet name="Treinos" sheetId="4" r:id="rId4"/>
+    <sheet name="alunos" sheetId="5" r:id="rId5"/>
+    <sheet name="Assinatura" sheetId="6" r:id="rId6"/>
+    <sheet name="Pagamento" sheetId="7" r:id="rId7"/>
+    <sheet name="Presencas" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="189">
   <si>
     <t>Tabela</t>
   </si>
@@ -543,35 +551,87 @@
   </si>
   <si>
     <t>presente, aluno_id</t>
+  </si>
+  <si>
+    <t>PK_Planos</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>PK_Instrutores</t>
+  </si>
+  <si>
+    <t>UQ_Instrutores_CPF</t>
+  </si>
+  <si>
+    <t>PK_Modalidades</t>
+  </si>
+  <si>
+    <t>PK_Treinos</t>
+  </si>
+  <si>
+    <t>PK_Alunos</t>
+  </si>
+  <si>
+    <t>UQ_Alunos_CPF</t>
+  </si>
+  <si>
+    <t>UQ_Alunos_Email</t>
+  </si>
+  <si>
+    <t>PK_Assinatura</t>
+  </si>
+  <si>
+    <t>PK_Pagamento</t>
+  </si>
+  <si>
+    <t>PK_Presencas</t>
+  </si>
+  <si>
+    <t>presenca_id</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,7 +639,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -595,7 +655,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -609,27 +675,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -639,113 +712,89 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -935,74 +984,76 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,143 +1073,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1168,51 +1219,61 @@
       <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2196,16 +2257,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
@@ -2217,79 +2268,87 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2309,167 +2368,167 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2479,62 +2538,82 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3507,22 +3586,17 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3530,79 +3604,82 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3622,155 +3699,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -3780,62 +3857,72 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4808,22 +4895,17 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -4831,79 +4913,82 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4913,187 +4998,187 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5103,72 +5188,82 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6141,22 +6236,17 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -6164,79 +6254,82 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.57"/>
-    <col customWidth="1" min="3" max="3" width="21.29"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6256,193 +6349,193 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -6452,71 +6545,101 @@
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7490,21 +7613,6 @@
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:H15"/>
@@ -7514,78 +7622,91 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7605,165 +7726,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -7773,73 +7894,83 @@
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8811,17 +8942,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A8:B8"/>
@@ -8833,78 +8953,87 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8924,161 +9053,161 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -9088,63 +9217,73 @@
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10116,17 +10255,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A17:B17"/>
@@ -10138,78 +10266,87 @@
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="3.86"/>
-    <col customWidth="1" min="7" max="7" width="3.71"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="26" width="15.57"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="26" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -10229,165 +10366,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -10397,72 +10534,82 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -11435,22 +11582,17 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -11458,10 +11600,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>